--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43660</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43576</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43296</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43212</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42925</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42841</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42729</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E8" s="3">
         <v>294200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>308000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>409900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>306800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>294900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>315400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>421500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>343900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>305700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>317300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>420600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>291500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E9" s="3">
         <v>243100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>247400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>327200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>242400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>241600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>250500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>331600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>268800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>245200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>325300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E10" s="3">
         <v>51100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>89900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>69800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +989,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>20400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E15" s="3">
         <v>21300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>301400</v>
+      </c>
+      <c r="E17" s="3">
         <v>299400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>320800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>406500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>321900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>293100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>414500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>301600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>307900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>403200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>306200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,101 +1214,108 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E21" s="3">
         <v>14200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>10200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1283,11 +1323,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>10700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1295,11 +1335,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>11000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,11 +1664,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>2800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43660</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43576</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43296</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43212</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42925</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42841</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42729</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E41" s="3">
         <v>20200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,184 +2148,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E44" s="3">
         <v>27100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>29500</v>
       </c>
       <c r="M44" s="3">
         <v>29500</v>
       </c>
       <c r="N44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="O44" s="3">
         <v>29700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E46" s="3">
         <v>75200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>83000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>104800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2278,96 +2383,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>944300</v>
+      </c>
+      <c r="E48" s="3">
         <v>964100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>976100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1002000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>565100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>595400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>607300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>626900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>638200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>647300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>651200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>656400</v>
       </c>
       <c r="O48" s="3">
         <v>656400</v>
       </c>
       <c r="P48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E49" s="3">
         <v>127100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>132200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>132900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>133700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>135300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>136700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>137300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>137600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>138200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E52" s="3">
         <v>79300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1237600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1245700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1259900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1270400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>843900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>854800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>862400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>874600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>910600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>898200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>903200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>908200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>918500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,57 +2752,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E57" s="3">
         <v>37100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
@@ -2680,8 +2814,8 @@
       <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2692,8 +2826,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2710,184 +2844,199 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E59" s="3">
         <v>159600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>120500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>115500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>114400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E60" s="3">
         <v>197600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>195600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>171100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>154300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>160300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>156500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>150700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>141000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E61" s="3">
         <v>199100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>191800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>194100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>202800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>230500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>231200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>241400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>276600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>287100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>290600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>311500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>347200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>466800</v>
+      </c>
+      <c r="E62" s="3">
         <v>481100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>502700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>513100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>87900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>87600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>86300</v>
       </c>
       <c r="K62" s="3">
         <v>86300</v>
       </c>
       <c r="L62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="M62" s="3">
         <v>83600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>877100</v>
+      </c>
+      <c r="E66" s="3">
         <v>877900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>890200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>902800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>461100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>460600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>470600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>481900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>523200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>521500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>530900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>546500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>570500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>353300</v>
+      </c>
+      <c r="E72" s="3">
         <v>361000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>362800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>361800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>376300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>387000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>385300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>387100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>382800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>374000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>371200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>364300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>352700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E76" s="3">
         <v>367800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>369700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>367600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>382800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>394200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>387400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>376800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>372300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>361600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>348100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43660</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43576</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43296</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43212</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42925</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42841</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42729</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>70000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,248 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44024</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43940</v>
+      </c>
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43660</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43576</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43296</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43212</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42925</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42841</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42729</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>306100</v>
+      </c>
+      <c r="F8" s="3">
         <v>302900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>294200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>308000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>409900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>306800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>294900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>315400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>421500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>343900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>305700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>317300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>420600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>291500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>274900</v>
+      </c>
+      <c r="F9" s="3">
         <v>240700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>243100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>247400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>327200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>242400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>241600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>250500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>331600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>268800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>245200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>247500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>325300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>233200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F10" s="3">
         <v>62200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>51100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>60600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>82700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>64400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>53300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>64900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>89900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>75100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>60500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>69800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>95300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>58300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +924,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +973,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,102 +1026,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>119400</v>
+      </c>
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>16800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>21700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>10600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>20400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F15" s="3">
         <v>20700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>21300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>21400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>28400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>22000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>21800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>29200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>22100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>21300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>21200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>28000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>22100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1154,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>464300</v>
+      </c>
+      <c r="F17" s="3">
         <v>301400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>299400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>320800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>406500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>321900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>293100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>319600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>414500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>335800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>301600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>307900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>403200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>306200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-15100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,137 +1281,151 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="F21" s="3">
         <v>30500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>14800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>38600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>28100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>42500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>10200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>10200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>10700</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>10700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>11000</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>11000</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1356,102 +1436,120 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-161600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-17900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>14500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1595,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1754,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,14 +1789,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>2800</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>2800</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1685,8 +1807,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1860,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1913,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +2072,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44024</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43940</v>
+      </c>
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43660</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43576</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43296</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43212</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42925</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42841</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42729</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2208,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2229,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F41" s="3">
         <v>30000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>26200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>22200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,196 +2331,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F43" s="3">
         <v>22400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>25000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>12100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>12300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>14200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>24200</v>
       </c>
       <c r="Q43" s="3">
         <v>14200</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="S43" s="3">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F44" s="3">
         <v>26400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>27100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>27400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>28100</v>
       </c>
       <c r="H44" s="3">
         <v>27400</v>
       </c>
       <c r="I44" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K44" s="3">
         <v>29200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>29300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>29400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>29600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>29500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>29500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>29700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>29900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F45" s="3">
         <v>26600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>27600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>21500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>31000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>27000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>154800</v>
+      </c>
+      <c r="F46" s="3">
         <v>105500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>75200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>81600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>85900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>98500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>83900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>83000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>80700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>104800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>85100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>85500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>82800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>92800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2386,102 +2596,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>877300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>899600</v>
+      </c>
+      <c r="F48" s="3">
         <v>944300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>964100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>976100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1002000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>565100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>595400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>607300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>626900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>638200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>647300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>651200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>656400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>656400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F49" s="3">
         <v>126400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>127100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>128500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>129400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>130400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>132200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>132900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>133700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>135300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>136700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>137300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>137600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>138200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2755,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2808,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F52" s="3">
         <v>61500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>79300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>73700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>53100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>49800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>43300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>39200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>33400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>32400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>29100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>29200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>31300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2914,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1030600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1122100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1237600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1245700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1259900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1270400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>843900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>854800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>862400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>874600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>910600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>898200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>903200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>908200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>918500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2992,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,75 +3013,83 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F57" s="3">
         <v>33000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>37100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>39000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>28200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>33800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>32800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>34500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>26600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2829,11 +3097,11 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2847,196 +3115,226 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>156100</v>
+      </c>
+      <c r="F59" s="3">
         <v>160800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>159600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>162700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>160900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>132100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>114100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>118100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>120500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>125000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>118000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>122000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>115500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>114400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>192800</v>
+      </c>
+      <c r="F60" s="3">
         <v>194600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>197600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>195700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>195600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>171100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>142200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>151800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>154300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>160300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>150800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>156500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>150700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>141000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>289800</v>
+      </c>
+      <c r="F61" s="3">
         <v>215700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>199100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>191800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>194100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>202800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>230500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>231200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>241400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>276600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>287100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>290600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>311500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>347200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>457200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>455000</v>
+      </c>
+      <c r="F62" s="3">
         <v>466800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>481100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>502700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>513100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>87200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>87900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>87600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>86300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>86300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>83600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>83800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>84300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>82300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3380,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3433,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3486,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>872600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>937700</v>
+      </c>
+      <c r="F66" s="3">
         <v>877100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>877900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>890200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>902800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>461100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>460600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>470600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>481900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>523200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>521500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>530900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>546500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>570500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3564,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3613,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3666,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3719,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3772,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>179000</v>
+      </c>
+      <c r="F72" s="3">
         <v>353300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>361000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>362800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>361800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>376300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>387000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>385300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>387100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>382800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>374000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>371200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>364300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>352700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3878,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3931,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3984,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>184400</v>
+      </c>
+      <c r="F76" s="3">
         <v>360500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>367800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>369700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>367600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>382800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>394200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>391800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>392700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>387400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>376800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>372300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>361600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>348100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +4090,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44024</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43940</v>
+      </c>
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43660</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43576</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43296</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43212</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42925</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42841</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42729</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4226,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F83" s="3">
         <v>20700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>22000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>22300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>29200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4328,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4381,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4434,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4487,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4540,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F89" s="3">
         <v>16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>16500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>37500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>57000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>16800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>34800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>70000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4618,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-24200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-11400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-22500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-24500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4720,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4773,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-24100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-11900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-19200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4851,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4900,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4953,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +5006,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +5059,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>81700</v>
+      </c>
+      <c r="F100" s="3">
         <v>16800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-28600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-34900</v>
       </c>
       <c r="L100" s="3">
         <v>-9800</v>
       </c>
       <c r="M100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-35100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>18900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F102" s="3">
         <v>9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1500</v>
       </c>
       <c r="J102" s="3">
         <v>-1800</v>
       </c>
       <c r="K102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>10500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44108</v>
+      </c>
+      <c r="E7" s="2">
         <v>44024</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43940</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43660</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43576</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43296</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43212</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42925</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42841</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42729</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E8" s="3">
         <v>161100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>306100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>302900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>294200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>308000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>409900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>306800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>294900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>315400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>421500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>343900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>305700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>317300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>420600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>291500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E9" s="3">
         <v>156900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>274900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>240700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>243100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>247400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>327200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>242400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>241600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>250500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>331600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>245200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>247500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>325300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>51100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>89900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>69800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>95300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>58300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,114 +1049,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>14500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>119400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>20400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E15" s="3">
         <v>20600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>29200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>28000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E17" s="3">
         <v>211700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>464300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>301400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>299400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>320800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>406500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>321900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>319600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>414500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>301600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>307900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>403200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>306200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-158200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,128 +1316,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>8400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-32000</v>
+        <v>-7600</v>
       </c>
       <c r="E21" s="3">
-        <v>-133300</v>
+        <v>-31900</v>
       </c>
       <c r="F21" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="G21" s="3">
         <v>30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>10200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1412,11 +1452,11 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>10700</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1424,11 +1464,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>11000</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-174300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-174300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,11 +1856,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>2800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-174300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-174300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44108</v>
+      </c>
+      <c r="E38" s="2">
         <v>44024</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43940</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43660</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43576</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43296</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43212</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42925</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42841</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42729</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E41" s="3">
         <v>26100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,220 +2427,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>26500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E44" s="3">
         <v>25000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>29500</v>
       </c>
       <c r="P44" s="3">
         <v>29500</v>
       </c>
       <c r="Q44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="R44" s="3">
         <v>29700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E45" s="3">
         <v>46800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E46" s="3">
         <v>106900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>105500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>81600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>104800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>82800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>92800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2602,114 +2707,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E48" s="3">
         <v>877300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>899600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>944300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>964100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>976100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1002000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>565100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>595400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>607300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>626900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>638200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>647300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>651200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>656400</v>
       </c>
       <c r="R48" s="3">
         <v>656400</v>
       </c>
       <c r="S48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="T48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E49" s="3">
         <v>26500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>132200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>133700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>135300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>136700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>137300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>137600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>138200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>19900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1033300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1030600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1122100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1237600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1245700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1259900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1270400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>843900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>854800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>862400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>874600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>910600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>898200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>903200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>908200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>918500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,61 +3145,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,13 +3211,13 @@
         <v>10800</v>
       </c>
       <c r="E58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
@@ -3091,8 +3225,8 @@
       <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3103,8 +3237,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3121,220 +3255,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E59" s="3">
         <v>174300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>159600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>160900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>132100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>125000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>115500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>114400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E60" s="3">
         <v>205000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>192800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>194600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>197600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>195700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>195600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>171100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>142200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>154300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>160300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>150800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>156500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>150700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>141000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E61" s="3">
         <v>210300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>289800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>215700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>199100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>191800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>194100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>202800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>230500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>231200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>241400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>276600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>287100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>290600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>311500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>347200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>457900</v>
+      </c>
+      <c r="E62" s="3">
         <v>457200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>455000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>466800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>481100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>502700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>513100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>87200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>86300</v>
       </c>
       <c r="N62" s="3">
         <v>86300</v>
       </c>
       <c r="O62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="P62" s="3">
         <v>83600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>880100</v>
+      </c>
+      <c r="E66" s="3">
         <v>872600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>937700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>877100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>877900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>890200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>902800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>461100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>460600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>470600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>481900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>523200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>521500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>530900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>546500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>570500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E72" s="3">
         <v>122700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>179000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>353300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>361000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>362800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>361800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>376300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>387000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>385300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>387100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>382800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>374000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>371200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>364300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>352700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E76" s="3">
         <v>158100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>360500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>367800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>369700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>367600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>382800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>394200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>391800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>392700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>387400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>376800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>372300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>361600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>348100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44108</v>
+      </c>
+      <c r="E80" s="2">
         <v>44024</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43940</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43660</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43576</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43296</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43212</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42925</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42841</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42729</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-174300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E83" s="3">
         <v>20600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,8 +5006,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4788,52 +5018,55 @@
         <v>-2700</v>
       </c>
       <c r="E94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>81700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44024</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43940</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43660</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43576</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43296</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43212</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42925</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42841</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42729</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>161100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>306100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>302900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>294200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>308000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>409900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>306800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>294900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>315400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>421500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>343900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>305700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>317300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>420600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>291500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E9" s="3">
         <v>180100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>156900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>274900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>240700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>243100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>247400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>327200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>242400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>241600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>250500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>331600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>268800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>245200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>247500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>325300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>233200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E10" s="3">
         <v>20400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>82700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>89900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>69800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>95300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>58300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,120 +1069,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>119400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>20400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="3">
         <v>19200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>29200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>28000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E17" s="3">
         <v>225100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>211700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>464300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>301400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>299400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>320800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>406500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>321900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>293100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>414500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>335800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>301600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>307900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>403200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>306200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-158200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,137 +1350,144 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-133100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>10200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1455,11 +1495,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>10700</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1467,11 +1507,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>11000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-20700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-174300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-174300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,11 +1920,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>2800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-174300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-174300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44024</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43940</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43660</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43576</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43296</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43212</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42925</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42841</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42729</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
         <v>27400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,232 +2520,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E43" s="3">
         <v>72100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>26500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E44" s="3">
         <v>24500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>25000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>29500</v>
       </c>
       <c r="Q44" s="3">
         <v>29500</v>
       </c>
       <c r="R44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="S44" s="3">
         <v>29700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E46" s="3">
         <v>135600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>105500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>81600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>104800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>82800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>92800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2710,120 +2815,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>852600</v>
+      </c>
+      <c r="E48" s="3">
         <v>862000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>877300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>899600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>944300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>964100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>976100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1002000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>565100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>595400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>607300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>626900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>638200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>647300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>651200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>656400</v>
       </c>
       <c r="S48" s="3">
         <v>656400</v>
       </c>
       <c r="T48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="U48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E49" s="3">
         <v>25400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>133700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>136700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>137300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>137600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>138200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
         <v>10200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>40300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>974700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1033300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1030600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1122100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1237600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1245700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1259900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1270400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>843900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>854800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>862400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>874600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>910600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>898200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>903200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>908200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>918500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,64 +3276,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E57" s="3">
         <v>18900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3214,13 +3348,13 @@
         <v>10800</v>
       </c>
       <c r="F58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G58" s="3">
         <v>10400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
@@ -3228,8 +3362,8 @@
       <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>900</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3240,8 +3374,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3258,232 +3392,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E59" s="3">
         <v>173300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>174300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>159600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>162700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>132100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>118100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>118000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>122000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>115500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>114400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>202600</v>
+      </c>
+      <c r="E60" s="3">
         <v>203100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>205000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>192800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>194600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>197600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>195700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>195600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>171100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>154300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>160300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>150800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>156500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>150700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>141000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E61" s="3">
         <v>219000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>210300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>289800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>215700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>199100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>191800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>194100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>202800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>230500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>231200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>241400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>276600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>287100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>290600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>311500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>347200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>479600</v>
+      </c>
+      <c r="E62" s="3">
         <v>457900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>457200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>455000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>466800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>481100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>502700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>513100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>86300</v>
       </c>
       <c r="O62" s="3">
         <v>86300</v>
       </c>
       <c r="P62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>83600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E66" s="3">
         <v>880100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>872600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>937700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>877100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>877900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>890200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>902800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>461100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>460600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>470600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>481900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>523200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>521500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>530900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>546500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>570500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E72" s="3">
         <v>116500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>122700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>179000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>353300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>361000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>362800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>361800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>376300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>387000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>385300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>387100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>382800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>374000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>371200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>364300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>352700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E76" s="3">
         <v>153200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>184400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>360500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>367800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>369700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>367600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>382800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>394200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>392700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>387400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>376800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>372300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>361600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>348100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44024</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43940</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43660</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43576</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43296</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43212</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42925</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42841</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42729</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-174300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
         <v>19200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2700</v>
+        <v>-7300</v>
       </c>
       <c r="E94" s="3">
         <v>-2700</v>
       </c>
       <c r="F94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-8700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E100" s="3">
         <v>7700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>81700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>18900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44304</v>
+      </c>
+      <c r="E7" s="2">
         <v>44192</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44108</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44024</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43940</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43744</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43660</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43576</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43380</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43296</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43212</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42925</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42841</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42729</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E8" s="3">
         <v>201100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>161100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>306100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>302900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>294200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>308000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>409900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>306800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>294900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>315400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>421500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>343900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>305700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>317300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>420600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>291500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>268600</v>
+      </c>
+      <c r="E9" s="3">
         <v>183300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>180100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>156900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>274900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>243100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>247400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>242400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>241600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>250500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>331600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>268800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>245200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>247500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>325300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>233200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E10" s="3">
         <v>17800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>62200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>82700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>89900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>69800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>95300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>58300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,126 +1089,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="3">
         <v>15600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>119400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>20400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E15" s="3">
         <v>19500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>28300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>29200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>28000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E17" s="3">
         <v>242800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>225100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>211700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>464300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>301400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>299400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>320800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>406500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>321900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>293100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>319600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>414500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>335800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>301600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>307900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>403200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>306200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-50600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-158200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,146 +1384,153 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-133100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>10200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1498,11 +1538,11 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>10700</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1510,11 +1550,11 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>11000</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1528,126 +1568,135 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-161600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-8100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-174300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-56300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-174300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,31 +1940,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1923,11 +1984,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1941,8 +2002,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-56300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-174300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-56300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-174300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44304</v>
+      </c>
+      <c r="E38" s="2">
         <v>44192</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44108</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44024</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43940</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43744</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43660</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43576</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43380</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43296</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43212</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42925</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42841</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42729</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,67 +2491,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E41" s="3">
         <v>16100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,244 +2613,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E43" s="3">
         <v>33200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E44" s="3">
         <v>23800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>29500</v>
       </c>
       <c r="R44" s="3">
         <v>29500</v>
       </c>
       <c r="S44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="T44" s="3">
         <v>29700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E46" s="3">
         <v>86900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>154800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>105500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>75200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>81600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>85900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>104800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>82800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>92800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2818,126 +2923,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>832300</v>
+      </c>
+      <c r="E48" s="3">
         <v>852600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>862000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>877300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>899600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>944300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>964100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>976100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1002000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>565100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>595400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>607300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>626900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>638200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>647300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>651200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>656400</v>
       </c>
       <c r="T48" s="3">
         <v>656400</v>
       </c>
       <c r="U48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="V48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E49" s="3">
         <v>24700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>25400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>127100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>133700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>136700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>137300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>137600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>138200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>79300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>951100</v>
+      </c>
+      <c r="E54" s="3">
         <v>974700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1033300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1030600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1122100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1237600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1245700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1259900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1270400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>843900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>854800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>862400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>874600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>910600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>898200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>903200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>908200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>918500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,72 +3407,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E57" s="3">
         <v>20200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
         <v>10800</v>
@@ -3351,13 +3485,13 @@
         <v>10800</v>
       </c>
       <c r="G58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H58" s="3">
         <v>10400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
@@ -3365,8 +3499,8 @@
       <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>900</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3377,8 +3511,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3395,244 +3529,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E59" s="3">
         <v>171600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>173300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>174300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>160800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>159600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>162700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>132100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>118100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>125000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>118000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>122000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>115500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>114400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E60" s="3">
         <v>202600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>203100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>205000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>192800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>194600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>197600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>195700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>171100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>151800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>154300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>160300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>150800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>156500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>150700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>141000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E61" s="3">
         <v>171900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>219000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>210300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>289800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>215700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>199100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>191800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>194100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>202800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>230500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>231200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>241400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>276600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>287100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>290600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>311500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>347200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>469500</v>
+      </c>
+      <c r="E62" s="3">
         <v>479600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>457900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>457200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>455000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>466800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>481100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>502700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>513100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>86300</v>
       </c>
       <c r="P62" s="3">
         <v>86300</v>
       </c>
       <c r="Q62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="R62" s="3">
         <v>83600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>838900</v>
+      </c>
+      <c r="E66" s="3">
         <v>854000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>880100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>872600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>937700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>877100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>877900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>890200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>902800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>461100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>460600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>470600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>481900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>523200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>521500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>530900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>546500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>570500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E72" s="3">
         <v>77200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>122700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>179000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>353300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>361000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>362800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>361800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>376300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>387000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>385300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>387100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>382800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>374000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>371200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>364300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>352700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E76" s="3">
         <v>120700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>158100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>360500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>367800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>369700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>367600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>382800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>394200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>391800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>392700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>387400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>376800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>372300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>361600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>348100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44304</v>
+      </c>
+      <c r="E80" s="2">
         <v>44192</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44108</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44024</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43940</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43744</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43660</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43576</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43380</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43296</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43212</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42925</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42841</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42729</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-56300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-174300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>42600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2700</v>
       </c>
       <c r="F94" s="3">
         <v>-2700</v>
       </c>
       <c r="G94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-8700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,8 +5554,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5380,8 +5614,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,181 +5800,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>81700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-62800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,300 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44388</v>
+      </c>
+      <c r="E7" s="2">
         <v>44304</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44192</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44108</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44024</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43940</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43744</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43660</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43576</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43380</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43296</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43212</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42925</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42841</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42729</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E8" s="3">
         <v>326300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>201100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>161100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>306100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>302900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>294200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>308000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>409900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>294900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>315400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>421500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>343900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>305700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>317300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>420600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>291500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E9" s="3">
         <v>268600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>183300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>180100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>156900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>274900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>240700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>243100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>247400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>242400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>241600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>250500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>331600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>268800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>245200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>247500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>325300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>233200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E10" s="3">
         <v>57700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>62200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>82700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>89900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>69800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>95300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>58300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,8 +981,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1044,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,132 +1109,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>119400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>20400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E15" s="3">
         <v>25900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>28000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1237,132 +1263,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>279500</v>
+      </c>
+      <c r="E17" s="3">
         <v>330600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>242800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>225100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>211700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>464300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>301400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>299400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>320800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>406500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>321900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>293100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>319600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>414500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>335800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>301600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>307900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>403200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>306200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-158200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1385,155 +1418,162 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-133100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>10200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1541,11 +1581,11 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>10700</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1553,11 +1593,11 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>11000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1571,132 +1611,141 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-161600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1757,132 +1806,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-174300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-56300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-174300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1943,8 +2001,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1969,8 +2030,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1987,11 +2048,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>2800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2005,8 +2066,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2067,8 +2131,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2129,132 +2196,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-56300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-174300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2315,137 +2391,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-56300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-174300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44388</v>
+      </c>
+      <c r="E38" s="2">
         <v>44304</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44192</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44108</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44024</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43940</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43744</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43660</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43576</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43380</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43296</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43212</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42925</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42841</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42729</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2468,8 +2553,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2492,70 +2578,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E41" s="3">
         <v>22300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2616,256 +2706,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E43" s="3">
         <v>27100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E44" s="3">
         <v>23700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>25000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>26400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>29500</v>
       </c>
       <c r="S44" s="3">
         <v>29500</v>
       </c>
       <c r="T44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="U44" s="3">
         <v>29700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>12800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E46" s="3">
         <v>85900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>135600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>105500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>81600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>104800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>82800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>92800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2926,132 +3031,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>821400</v>
+      </c>
+      <c r="E48" s="3">
         <v>832300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>852600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>862000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>877300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>899600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>944300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>964100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>976100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1002000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>565100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>595400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>607300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>626900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>638200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>647300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>651200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>656400</v>
       </c>
       <c r="U48" s="3">
         <v>656400</v>
       </c>
       <c r="V48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="W48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E49" s="3">
         <v>23700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>25400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>126400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>127100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>133700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>137300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>137600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>138200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3112,8 +3226,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3174,70 +3291,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>40300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>79300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3298,70 +3421,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>942100</v>
+      </c>
+      <c r="E54" s="3">
         <v>951100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>974700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1033300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1030600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1122100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1237600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1245700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1259900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1270400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>843900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>854800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>862400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>874600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>910600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>898200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>903200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>908200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>918500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3384,8 +3513,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3408,78 +3538,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E57" s="3">
         <v>25500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E58" s="3">
         <v>10500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10800</v>
       </c>
       <c r="F58" s="3">
         <v>10800</v>
@@ -3488,13 +3622,13 @@
         <v>10800</v>
       </c>
       <c r="H58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I58" s="3">
         <v>10400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -3502,8 +3636,8 @@
       <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>900</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3514,8 +3648,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3532,256 +3666,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E59" s="3">
         <v>168100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>173300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>174300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>160800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>159600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>162700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>132100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>114100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>125000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>118000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>122000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>115500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>114400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E60" s="3">
         <v>204200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>202600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>203100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>205000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>192800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>194600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>197600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>171100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>151800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>154300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>160300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>150800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>156500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>150700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>141000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E61" s="3">
         <v>165200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>171900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>219000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>210300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>289800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>215700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>199100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>191800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>194100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>202800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>230500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>231200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>241400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>276600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>287100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>290600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>311500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>347200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>462900</v>
+      </c>
+      <c r="E62" s="3">
         <v>469500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>479600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>457900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>457200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>455000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>466800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>481100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>502700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>513100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>86300</v>
       </c>
       <c r="Q62" s="3">
         <v>86300</v>
       </c>
       <c r="R62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="S62" s="3">
         <v>83600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3842,8 +3991,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3904,8 +4056,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3966,70 +4121,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>832900</v>
+      </c>
+      <c r="E66" s="3">
         <v>838900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>854000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>880100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>872600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>937700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>877100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>877900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>890200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>902800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>461100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>460600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>470600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>481900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>523200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>521500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>530900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>546500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>570500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4052,8 +4213,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4114,8 +4276,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4176,8 +4341,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4238,8 +4406,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4300,70 +4471,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E72" s="3">
         <v>68500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>77200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>122700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>179000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>353300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>361000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>362800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>361800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>376300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>387000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>385300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>387100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>382800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>374000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>371200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>364300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>352700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4424,8 +4601,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4486,8 +4666,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4548,70 +4731,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E76" s="3">
         <v>112300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>158100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>360500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>367800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>369700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>367600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>382800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>394200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>391800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>392700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>387400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>376800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>372300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>361600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>348100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4672,137 +4861,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44388</v>
+      </c>
+      <c r="E80" s="2">
         <v>44304</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44192</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44108</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44024</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43940</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43744</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43660</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43576</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43380</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43296</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43212</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42925</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42841</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42729</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-56300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-174300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4825,70 +5023,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E83" s="3">
         <v>25900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4949,8 +5151,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5011,8 +5216,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5073,8 +5281,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5135,8 +5346,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5197,70 +5411,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E89" s="3">
         <v>18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5283,70 +5503,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5407,8 +5631,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5469,8 +5696,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5478,61 +5708,64 @@
         <v>-5400</v>
       </c>
       <c r="E94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-2700</v>
       </c>
       <c r="G94" s="3">
         <v>-2700</v>
       </c>
       <c r="H94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5555,8 +5788,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5617,8 +5851,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5679,8 +5916,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5741,8 +5981,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5803,70 +6046,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>81700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-35100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5874,119 +6123,125 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,300 +665,313 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44388</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44304</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44108</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44024</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43940</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43744</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43660</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43576</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43380</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43296</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43212</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42925</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42841</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42729</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>275400</v>
+      </c>
+      <c r="E8" s="3">
         <v>277000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>326300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>201100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>161100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>306100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>302900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>294200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>308000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>409900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>294900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>315400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>421500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>343900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>305700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>317300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>420600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>291500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E9" s="3">
         <v>229400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>183300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>180100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>156900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>274900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>240700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>243100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>247400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>242400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>241600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>250500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>331600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>268800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>245200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>247500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>325300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>233200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E10" s="3">
         <v>47600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>82700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>89900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>69800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>95300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>58300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,8 +995,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1061,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,138 +1129,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>119400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>20400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E15" s="3">
         <v>19200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>29200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>28000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1264,138 +1290,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E17" s="3">
         <v>279500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>330600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>242800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>211700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>464300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>301400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>299400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>320800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>406500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>321900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>293100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>319600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>414500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>335800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>301600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>307900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>403200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>306200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-158200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1419,8 +1452,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,129 +1462,135 @@
         <v>-2700</v>
       </c>
       <c r="E20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-133100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>15700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,25 +1598,25 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>10200</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1584,11 +1624,11 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>10700</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1596,11 +1636,11 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>11000</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1614,138 +1654,147 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-161600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1809,138 +1858,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-39300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-174300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-39300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-174300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2004,8 +2062,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2033,8 +2094,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2051,11 +2112,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>2800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2069,8 +2130,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2134,8 +2198,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2199,8 +2266,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2208,129 +2278,135 @@
         <v>2700</v>
       </c>
       <c r="E32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-39300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-174300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2394,143 +2470,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-39300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-174300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44388</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44304</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44192</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44108</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44024</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43940</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43744</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43660</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43576</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43380</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43296</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43212</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42925</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42841</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42729</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2554,8 +2639,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2579,73 +2665,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="3">
         <v>25600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>88900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2709,268 +2799,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E43" s="3">
         <v>27700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>26500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E44" s="3">
         <v>23900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>25000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>29500</v>
       </c>
       <c r="T44" s="3">
         <v>29500</v>
       </c>
       <c r="U44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="V44" s="3">
         <v>29700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>29900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E46" s="3">
         <v>89500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>85900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>105500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>104800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>85500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>82800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>92800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3034,138 +3139,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>808700</v>
+      </c>
+      <c r="E48" s="3">
         <v>821400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>832300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>852600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>862000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>877300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>899600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>944300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>964100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>976100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1002000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>565100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>595400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>607300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>626900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>638200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>647300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>651200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>656400</v>
       </c>
       <c r="V48" s="3">
         <v>656400</v>
       </c>
       <c r="W48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="X48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E49" s="3">
         <v>23100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>126400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>129400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>133700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>135300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>137300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>137600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>138200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3229,8 +3343,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3294,73 +3411,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E52" s="3">
         <v>8100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3424,73 +3547,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>921700</v>
+      </c>
+      <c r="E54" s="3">
         <v>942100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>951100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>974700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1033300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1030600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1122100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1237600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1245700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1259900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1270400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>843900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>854800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>862400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>874600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>910600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>898200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>903200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>908200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>918500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3514,8 +3643,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3539,73 +3669,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E57" s="3">
         <v>31400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>26600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,10 +3747,10 @@
         <v>10800</v>
       </c>
       <c r="E58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F58" s="3">
         <v>10500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10800</v>
       </c>
       <c r="G58" s="3">
         <v>10800</v>
@@ -3625,13 +3759,13 @@
         <v>10800</v>
       </c>
       <c r="I58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J58" s="3">
         <v>10400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
@@ -3639,8 +3773,8 @@
       <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>900</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3651,8 +3785,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3669,268 +3803,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E59" s="3">
         <v>171800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>168100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>171600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>173300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>174300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>159600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>162700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>132100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>114100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>118100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>125000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>118000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>122000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>115500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>114400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E60" s="3">
         <v>214000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>204200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>202600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>203100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>205000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>192800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>194600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>197600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>195700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>195600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>171100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>142200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>151800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>154300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>160300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>150800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>156500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>150700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>141000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E61" s="3">
         <v>156000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>165200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>171900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>219000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>210300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>289800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>215700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>199100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>191800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>194100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>202800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>230500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>231200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>241400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>276600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>287100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>290600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>311500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>347200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>455600</v>
+      </c>
+      <c r="E62" s="3">
         <v>462900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>469500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>479600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>457900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>457200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>455000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>466800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>481100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>502700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>513100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>86300</v>
       </c>
       <c r="R62" s="3">
         <v>86300</v>
       </c>
       <c r="S62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="T62" s="3">
         <v>83600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3994,8 +4143,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4059,8 +4211,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4124,73 +4279,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>825600</v>
+      </c>
+      <c r="E66" s="3">
         <v>832900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>838900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>854000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>880100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>872600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>937700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>877100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>877900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>890200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>902800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>461100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>460600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>470600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>481900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>523200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>521500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>530900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>546500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>570500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4214,8 +4375,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4279,8 +4441,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4344,8 +4509,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4409,8 +4577,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4474,73 +4645,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E72" s="3">
         <v>63500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>68500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>77200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>122700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>179000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>353300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>361000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>362800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>361800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>376300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>387000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>385300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>387100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>382800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>374000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>371200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>364300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>352700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4604,8 +4781,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4669,8 +4849,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4734,73 +4917,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E76" s="3">
         <v>109200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>158100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>360500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>367800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>369700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>367600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>382800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>394200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>391800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>392700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>387400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>376800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>372300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>361600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>348100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4864,143 +5053,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44388</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44304</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44192</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44108</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44024</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43940</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43744</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43660</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43576</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43380</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43296</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43212</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42925</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42841</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42729</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-39300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-174300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5024,73 +5222,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E83" s="3">
         <v>19200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5154,8 +5356,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5219,8 +5424,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5284,8 +5492,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5349,8 +5560,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5414,73 +5628,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>18300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>42600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5504,73 +5724,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5634,8 +5858,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5699,73 +5926,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5400</v>
+        <v>-9100</v>
       </c>
       <c r="E94" s="3">
         <v>-5400</v>
       </c>
       <c r="F94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2700</v>
       </c>
       <c r="H94" s="3">
         <v>-2700</v>
       </c>
       <c r="I94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-8700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5789,8 +6022,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5854,8 +6088,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5919,8 +6156,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5984,8 +6224,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6049,73 +6292,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-55400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>81700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-35100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>18900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6126,122 +6375,128 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,313 +665,326 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44388</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44304</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44192</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44108</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44024</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43940</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43744</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43660</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43576</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43380</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43296</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43212</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42925</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42841</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42729</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>283400</v>
+      </c>
+      <c r="E8" s="3">
         <v>275400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>277000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>326300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>201100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>161100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>306100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>294200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>308000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>409900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>306800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>294900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>315400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>421500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>343900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>305700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>317300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>420600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>291500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E9" s="3">
         <v>236400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>229400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>183300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>180100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>156900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>274900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>240700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>243100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>247400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>327200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>242400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>241600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>250500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>331600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>268800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>245200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>247500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>325300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>233200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E10" s="3">
         <v>39000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>82700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>64900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>89900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>69800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>95300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>58300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1009,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,8 +1078,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1132,144 +1149,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>119400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>20400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="3">
         <v>18900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>28000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>22100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1291,144 +1317,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>301100</v>
+      </c>
+      <c r="E17" s="3">
         <v>287600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>279500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>330600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>242800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>211700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>464300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>301400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>299400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>320800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>406500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>321900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>293100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>319600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>414500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>335800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>301600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>307900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>403200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>306200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-158200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-14700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1453,173 +1486,180 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
         <v>-2700</v>
       </c>
       <c r="F20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>4000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-133100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>15700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>10200</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1627,11 +1667,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>10700</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1639,11 +1679,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>11000</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1657,144 +1697,153 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-161600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-20700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1861,144 +1910,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-174300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-56300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-174300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2065,8 +2123,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2097,8 +2158,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2115,11 +2176,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>2800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2133,8 +2194,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2201,8 +2265,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2269,144 +2336,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
         <v>2700</v>
       </c>
       <c r="F32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-56300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-174300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2473,149 +2549,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-56300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-174300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44388</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44304</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44192</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44108</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44024</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43940</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43744</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43660</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43576</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43380</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43296</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43212</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42925</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42841</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42729</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2640,8 +2725,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2666,76 +2752,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>88900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2802,280 +2892,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E43" s="3">
         <v>28100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>26500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E44" s="3">
         <v>23800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>25000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>27400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>29500</v>
       </c>
       <c r="U44" s="3">
         <v>29500</v>
       </c>
       <c r="V44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="W44" s="3">
         <v>29700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>46800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E46" s="3">
         <v>82100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>85900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>105500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>83000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>80700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>104800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>85100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>82800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>92800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3142,144 +3247,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>787200</v>
+      </c>
+      <c r="E48" s="3">
         <v>808700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>821400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>832300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>852600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>862000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>877300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>899600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>944300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>964100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>976100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1002000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>565100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>595400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>607300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>626900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>638200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>647300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>651200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>656400</v>
       </c>
       <c r="W48" s="3">
         <v>656400</v>
       </c>
       <c r="X48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E49" s="3">
         <v>22400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>25400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>126400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>127100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>133700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>135300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>136700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>137300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>137600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>138200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3346,8 +3460,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3414,76 +3531,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>40300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>32400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3550,76 +3673,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E54" s="3">
         <v>921700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>942100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>951100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>974700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1033300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1030600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1122100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1237600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1245700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1259900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1270400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>843900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>854800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>862400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>874600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>910600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>898200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>903200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>908200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>918500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3644,8 +3773,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3670,90 +3800,94 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E57" s="3">
         <v>34600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10800</v>
+        <v>9700</v>
       </c>
       <c r="E58" s="3">
         <v>10800</v>
       </c>
       <c r="F58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G58" s="3">
         <v>10500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10800</v>
       </c>
       <c r="H58" s="3">
         <v>10800</v>
@@ -3762,13 +3896,13 @@
         <v>10800</v>
       </c>
       <c r="J58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
@@ -3776,8 +3910,8 @@
       <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>900</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3788,8 +3922,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3806,280 +3940,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E59" s="3">
         <v>166200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>168100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>171600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>173300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>174300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>132100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>114100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>118100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>125000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>118000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>122000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>115500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>114400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E60" s="3">
         <v>211600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>214000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>204200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>202600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>205000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>192800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>194600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>197600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>195700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>195600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>171100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>142200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>151800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>154300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>160300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>150800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>156500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>150700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>141000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E61" s="3">
         <v>158300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>165200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>171900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>219000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>210300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>289800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>215700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>199100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>191800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>194100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>202800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>230500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>231200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>241400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>276600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>287100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>290600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>311500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>347200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>461500</v>
+      </c>
+      <c r="E62" s="3">
         <v>455600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>462900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>469500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>479600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>457900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>457200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>455000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>466800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>481100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>502700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>513100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>86300</v>
       </c>
       <c r="S62" s="3">
         <v>86300</v>
       </c>
       <c r="T62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="U62" s="3">
         <v>83600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>83800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4146,8 +4295,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4214,8 +4366,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4282,76 +4437,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E66" s="3">
         <v>825600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>832900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>838900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>854000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>880100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>872600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>937700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>877100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>877900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>890200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>902800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>461100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>460600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>470600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>481900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>523200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>521500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>530900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>546500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>570500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4376,8 +4537,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4444,8 +4606,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4512,8 +4677,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4580,8 +4748,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4648,76 +4819,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E72" s="3">
         <v>48500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>68500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>77200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>122700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>179000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>353300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>361000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>362800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>361800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>376300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>387000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>385300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>387100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>382800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>374000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>371200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>364300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>352700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4784,8 +4961,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4852,8 +5032,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4920,76 +5103,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E76" s="3">
         <v>96200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>109200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>158100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>360500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>367800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>369700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>367600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>382800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>394200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>391800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>392700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>387400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>376800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>372300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>361600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>348100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5056,149 +5245,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44388</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44304</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44192</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44108</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44024</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43940</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43744</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43660</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43576</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43380</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43296</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43212</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42925</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42841</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42729</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-56300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-174300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5223,76 +5421,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
         <v>18900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>28000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5359,8 +5561,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5427,8 +5632,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5495,8 +5703,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5563,8 +5774,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5631,76 +5845,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>42600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>57000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>70000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5725,76 +5945,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5861,8 +6085,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5929,76 +6156,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-5400</v>
       </c>
       <c r="F94" s="3">
         <v>-5400</v>
       </c>
       <c r="G94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2700</v>
       </c>
       <c r="I94" s="3">
         <v>-2700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6023,8 +6256,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6091,8 +6325,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6159,8 +6396,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6227,8 +6467,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6295,76 +6538,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>81700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-35100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6378,125 +6627,131 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -1493,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
         <v>-2700</v>
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1700</v>
+        <v>12500</v>
       </c>
       <c r="E21" s="3">
         <v>4000</v>
@@ -1634,8 +1634,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>14200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1918,8 +1918,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-21300</v>
       </c>
       <c r="E26" s="3">
         <v>-15000</v>
@@ -1989,8 +1989,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-21300</v>
       </c>
       <c r="E27" s="3">
         <v>-15000</v>
@@ -2345,7 +2345,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
         <v>2700</v>
@@ -2415,8 +2415,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-21300</v>
       </c>
       <c r="E33" s="3">
         <v>-15000</v>
@@ -2557,8 +2557,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-21300</v>
       </c>
       <c r="E35" s="3">
         <v>-15000</v>
@@ -3878,7 +3878,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9700</v>
+        <v>10900</v>
       </c>
       <c r="E58" s="3">
         <v>10800</v>
@@ -3949,7 +3949,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181100</v>
+        <v>179900</v>
       </c>
       <c r="E59" s="3">
         <v>166200</v>
@@ -5329,8 +5329,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-21300</v>
       </c>
       <c r="E81" s="3">
         <v>-15000</v>
@@ -5951,8 +5951,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-22300</v>
       </c>
       <c r="E91" s="3">
         <v>-9100</v>
@@ -6689,7 +6689,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8300</v>
+        <v>5000</v>
       </c>
       <c r="E102" s="3">
         <v>-7800</v>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,326 +665,352 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44752</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44668</v>
+      </c>
+      <c r="F7" s="2">
         <v>44556</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44388</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44304</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44192</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44108</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44024</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43940</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43744</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43660</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43576</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43380</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43296</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43212</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42925</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42841</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42729</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>395600</v>
+      </c>
+      <c r="F8" s="3">
         <v>283400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>275400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>277000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>326300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>201100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>161100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>306100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>302900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>294200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>308000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>409900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>306800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>294900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>315400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>421500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>343900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>305700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>317300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>420600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>291500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>327500</v>
+      </c>
+      <c r="F9" s="3">
         <v>240700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>236400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>229400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>268600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>183300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>180100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>156900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>274900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>240700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>243100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>247400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>327200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>242400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>241600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>250500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>331600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>268800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>245200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>247500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>325300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>233200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>68100</v>
+      </c>
+      <c r="F10" s="3">
         <v>42700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>39000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>47600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>57700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>17800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>20400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>62200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>51100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>60600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>82700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>64400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>53300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>64900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>89900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>75100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>60500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>69800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>95300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>58300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1036,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,8 +1109,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,150 +1186,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>14500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>119400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>16800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>21700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>10600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>6300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>5300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>20400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F15" s="3">
         <v>19500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>18900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>19200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>25900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>19500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>19200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>20600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>20700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>21300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>21400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>28400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>22000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>21800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>22300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>29200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>22100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>21300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>21200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>28000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>22100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1318,150 +1370,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>391200</v>
+      </c>
+      <c r="F17" s="3">
         <v>301100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>287600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>279500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>330600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>242800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>225100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>211700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>464300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>301400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>299400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>320800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>406500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>321900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>293100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>319600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>414500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>335800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>301600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>307900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>403200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>306200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-41700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-24600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-50600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-158200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>8100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>9400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>17400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1487,164 +1553,178 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F20" s="3">
         <v>10700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>8400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F21" s="3">
         <v>12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-22900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-31900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-133100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>14200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>21300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>15700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>32800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>38600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>23300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>28100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>42500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>5300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14200</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1656,40 +1736,40 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>10200</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>10700</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>10700</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>11000</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>11000</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1700,150 +1780,168 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-42500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-52600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-161600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>14500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-16800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-20700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1913,150 +2011,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-39300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-56300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-174300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-39300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-56300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-174300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,8 +2242,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2161,11 +2283,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2179,14 +2301,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>2800</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>2800</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2197,8 +2319,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2268,8 +2396,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2339,150 +2473,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-8400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-39300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-56300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-174300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>8800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2552,155 +2704,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-39300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-56300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-174300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>8800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44752</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44668</v>
+      </c>
+      <c r="F38" s="2">
         <v>44556</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44388</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44304</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44192</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44108</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44024</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43940</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43744</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43660</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43576</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43380</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43296</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43212</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42925</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42841</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42729</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2726,8 +2896,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2753,79 +2925,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>26100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>88900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>30000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>26200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>18600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>23700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>17700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>15000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>20200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>22200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>11700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2895,79 +3075,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F43" s="3">
         <v>37200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>27700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>72100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>13000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>12600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>25000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>14000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>26500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>12300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>12900</v>
-      </c>
-      <c r="W43" s="3">
-        <v>14200</v>
-      </c>
-      <c r="X43" s="3">
-        <v>24200</v>
       </c>
       <c r="Y43" s="3">
         <v>14200</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2975,212 +3167,230 @@
         <v>25200</v>
       </c>
       <c r="E44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G44" s="3">
         <v>23800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>23900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>23700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>23800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>24500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>25000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>24900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>26400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>27100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>27400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>28100</v>
       </c>
       <c r="P44" s="3">
         <v>27400</v>
       </c>
       <c r="Q44" s="3">
+        <v>28100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>27400</v>
+      </c>
+      <c r="S44" s="3">
         <v>29200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>29300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>29400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>29600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>29500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>29500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>29700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>29900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>46800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>26600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>16500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>27600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>15600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>31000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>28400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>22900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>16600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>27000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F46" s="3">
         <v>102200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>82100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>89500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>85900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>86900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>135600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>106900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>154800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>105500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>75200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>81600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>85900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>98500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>83900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>83000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>80700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>104800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>85100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>85500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>82800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>92800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3250,150 +3460,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>745200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>769800</v>
+      </c>
+      <c r="F48" s="3">
         <v>787200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>808700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>821400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>832300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>852600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>862000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>877300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>899600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>944300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>964100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>976100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1002000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>565100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>595400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>607300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>626900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>638200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>647300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>651200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>656400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>656400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F49" s="3">
         <v>21300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>22400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>23100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>23700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>24700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>25400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>26500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>27400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>126400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>127100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>128500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>129400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>130400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>132200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>132900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>133700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>135300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>136700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>137300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>137600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>138200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3463,8 +3691,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3534,79 +3768,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F52" s="3">
         <v>18400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>40300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>61500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>79300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>73700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>53100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>49800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>43300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>39200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>33400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>32400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>29100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>29200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>31300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>31100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3676,79 +3922,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>884400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>906500</v>
+      </c>
+      <c r="F54" s="3">
         <v>929000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>921700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>942100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>951100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>974700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1033300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1030600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1122100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1237600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1245700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1259900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1270400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>843900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>854800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>862400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>874600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>910600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>898200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>903200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>908200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>918500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3774,8 +4032,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3801,123 +4061,131 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F57" s="3">
         <v>32500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>34600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>31400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>25500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>20200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>18900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>26300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>37100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>33800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>39000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>28200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>33700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>33800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>35300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>32800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>34500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>35200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>26600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10500</v>
       </c>
       <c r="H58" s="3">
         <v>10800</v>
       </c>
       <c r="I58" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="J58" s="3">
         <v>10800</v>
       </c>
       <c r="K58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="L58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M58" s="3">
         <v>10400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>900</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3925,11 +4193,11 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3943,292 +4211,322 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>167400</v>
+      </c>
+      <c r="F59" s="3">
         <v>179900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>166200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>171800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>168100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>171600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>173300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>174300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>156100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>160800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>159600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>162700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>160900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>132100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>114100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>118100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>120500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>125000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>118000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>122000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>115500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>114400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>202100</v>
+      </c>
+      <c r="F60" s="3">
         <v>223300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>211600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>214000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>204200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>202600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>203100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>205000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>192800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>194600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>197600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>195700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>195600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>171100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>142200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>151800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>154300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>160300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>150800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>156500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>150700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>141000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>201700</v>
+      </c>
+      <c r="F61" s="3">
         <v>167300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>158300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>156000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>165200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>171900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>219000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>210300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>289800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>215700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>199100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>191800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>194100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>202800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>230500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>231200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>241400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>276600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>287100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>290600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>311500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>347200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>425800</v>
+      </c>
+      <c r="F62" s="3">
         <v>461500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>455600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>462900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>469500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>479600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>457900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>457200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>455000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>466800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>481100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>502700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>513100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>87200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>87900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>87600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>86300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>86300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>83600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>83800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>84300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>82300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4298,8 +4596,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4369,8 +4673,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4440,79 +4750,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>822800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>829700</v>
+      </c>
+      <c r="F66" s="3">
         <v>852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>825600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>832900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>838900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>854000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>880100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>872600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>937700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>877100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>877900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>890200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>902800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>461100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>460600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>470600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>481900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>523200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>521500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>530900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>546500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>570500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4538,8 +4860,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4609,8 +4933,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4680,8 +5010,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4751,8 +5087,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4822,79 +5164,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F72" s="3">
         <v>27200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>48500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>63500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>68500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>77200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>116500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>122700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>179000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>353300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>361000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>362800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>361800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>376300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>387000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>385300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>387100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>382800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>374000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>371200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>364300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>352700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4964,8 +5318,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5035,8 +5395,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5106,79 +5472,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F76" s="3">
         <v>77000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>96200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>109200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>112300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>120700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>153200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>158100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>184400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>360500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>367800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>369700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>367600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>382800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>394200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>391800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>392700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>387400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>376800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>372300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>361600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>348100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5248,155 +5626,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44752</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44668</v>
+      </c>
+      <c r="F80" s="2">
         <v>44556</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44388</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44304</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44192</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44108</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44024</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43940</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43744</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43660</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43576</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43380</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43296</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43212</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42925</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42841</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42729</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-39300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-56300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-174300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>8800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5422,79 +5818,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>18900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>19200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>25900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>19200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>22300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>29200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>22100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>21200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>28000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>22100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5564,8 +5968,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5635,8 +6045,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5706,8 +6122,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5777,8 +6199,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5848,79 +6276,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F89" s="3">
         <v>9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>42600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>16500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>25300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>37500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>11800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>20000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>57000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>35000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>16800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>34800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>70000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5946,79 +6386,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-22300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-12500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-15900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-19200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-24500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-27100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6088,8 +6536,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6159,79 +6613,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-11900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-12400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-11400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-15800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-22400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-19200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-17300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-24400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-26900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6257,8 +6723,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6328,8 +6796,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6399,8 +6873,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6470,8 +6950,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6541,79 +7027,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F100" s="3">
         <v>17600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-45700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-55400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>81700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-34900</v>
       </c>
       <c r="T100" s="3">
         <v>-9800</v>
       </c>
       <c r="U100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-19500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-35100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>18900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6630,128 +7128,140 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-62800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>58900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-1500</v>
       </c>
       <c r="R102" s="3">
         <v>-1800</v>
       </c>
       <c r="S102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U102" s="3">
         <v>6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>10500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,365 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44752</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44668</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44556</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44388</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44304</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44192</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44108</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44024</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43940</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43744</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43660</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43576</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43380</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43296</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43212</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42925</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42841</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42729</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E8" s="3">
         <v>294100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>395600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>283400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>275400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>277000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>326300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>201100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>161100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>302900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>294200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>308000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>409900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>306800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>294900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>315400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>421500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>343900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>305700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>317300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>420600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>291500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E9" s="3">
         <v>249300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>327500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>240700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>229400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>268600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>183300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>180100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>156900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>274900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>240700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>243100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>247400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>327200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>242400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>241600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>250500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>331600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>268800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>245200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>247500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>325300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>233200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E10" s="3">
         <v>44800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>39000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>47600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>64900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>89900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>75100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>69800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>95300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>58300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1051,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1129,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1192,162 +1209,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>119400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>20400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E15" s="3">
         <v>17600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>18900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>28400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>29200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>21300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>28000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>22100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1372,162 +1398,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E17" s="3">
         <v>307400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>391200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>301100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>287600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>279500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>330600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>242800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>225100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>464300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>301400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>299400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>320800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>406500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>321900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>293100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>319600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>414500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>335800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>301600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>307900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>403200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>306200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-50600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-158200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1555,200 +1588,207 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2700</v>
       </c>
       <c r="H20" s="3">
         <v>-2700</v>
       </c>
       <c r="I20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-31900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-133100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>15700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>32800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>28100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>42500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>10200</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1756,11 +1796,11 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>10700</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1768,11 +1808,11 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>11000</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
@@ -1786,162 +1826,171 @@
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-161600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>14500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-16800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>2900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2017,162 +2066,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-39300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-174300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-39300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-174300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2248,8 +2306,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2289,8 +2350,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2307,11 +2368,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>2800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2325,8 +2386,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2402,8 +2466,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2479,162 +2546,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2700</v>
       </c>
       <c r="H32" s="3">
         <v>2700</v>
       </c>
       <c r="I32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-39300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-174300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2710,167 +2786,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-39300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-174300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44752</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44668</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44556</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44388</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44304</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44192</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44108</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44024</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43940</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43744</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43660</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43576</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43380</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43296</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43212</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42925</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42841</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42729</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2898,8 +2983,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2927,85 +3013,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="3">
         <v>50300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>88900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>20200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3081,85 +3171,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>26500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>14200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>24200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3173,224 +3269,233 @@
         <v>25200</v>
       </c>
       <c r="G44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H44" s="3">
         <v>23800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>25000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>27100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>27400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>28100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>27400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>29600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>29500</v>
       </c>
       <c r="X44" s="3">
         <v>29500</v>
       </c>
       <c r="Y44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="Z44" s="3">
         <v>29700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>29900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>22800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>31000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>27000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E46" s="3">
         <v>111600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>89500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>86900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>105500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>81600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>98500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>80700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>104800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>85100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>85500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>82800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>92800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3466,162 +3571,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>725400</v>
+      </c>
+      <c r="E48" s="3">
         <v>745200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>769800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>787200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>808700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>821400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>832300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>852600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>862000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>877300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>899600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>944300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>964100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>976100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1002000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>565100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>595400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>607300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>626900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>638200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>647300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>651200</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>656400</v>
       </c>
       <c r="Z48" s="3">
         <v>656400</v>
       </c>
       <c r="AA48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="AB48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>126400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>128500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>129400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>130400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>132200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>133700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>135300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>136700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>137300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>137600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>138200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3697,8 +3811,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3774,85 +3891,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>53100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>49800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>29100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>31300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>31100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3928,85 +4051,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>860900</v>
+      </c>
+      <c r="E54" s="3">
         <v>884400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>906500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>929000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>921700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>942100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>951100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>974700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1033300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1030600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1122100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1237600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1245700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1259900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1270400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>843900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>854800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>862400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>874600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>910600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>898200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>903200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>908200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>918500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4034,8 +4163,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4063,85 +4193,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>26600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4149,22 +4283,22 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10800</v>
       </c>
       <c r="H58" s="3">
         <v>10800</v>
       </c>
       <c r="I58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J58" s="3">
         <v>10500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10800</v>
       </c>
       <c r="K58" s="3">
         <v>10800</v>
@@ -4173,13 +4307,13 @@
         <v>10800</v>
       </c>
       <c r="M58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="N58" s="3">
         <v>10400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
@@ -4187,8 +4321,8 @@
       <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>900</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4199,8 +4333,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4217,316 +4351,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E59" s="3">
         <v>171100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>167400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>166200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>171800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>168100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>171600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>173300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>174300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>162700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>160900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>132100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>114100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>118100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>120500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>125000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>118000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>122000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>115500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>114400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E60" s="3">
         <v>206600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>202100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>223300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>211600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>214000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>204200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>202600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>203100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>205000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>192800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>194600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>197600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>195700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>195600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>171100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>142200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>151800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>154300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>160300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>150800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>156500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>150700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>141000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E61" s="3">
         <v>198200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>201700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>167300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>158300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>156000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>165200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>171900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>219000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>210300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>289800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>215700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>199100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>191800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>194100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>202800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>230500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>231200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>241400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>276600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>287100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>290600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>311500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>347200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E62" s="3">
         <v>418000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>425800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>461500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>455600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>462900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>469500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>479600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>457900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>457200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>455000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>466800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>481100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>502700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>513100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>87600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>86300</v>
       </c>
       <c r="V62" s="3">
         <v>86300</v>
       </c>
       <c r="W62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="X62" s="3">
         <v>83600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>83800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>82300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4602,8 +4751,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4679,8 +4831,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4756,85 +4911,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>809300</v>
+      </c>
+      <c r="E66" s="3">
         <v>822800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>829700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>852000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>825600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>832900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>838900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>854000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>880100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>872600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>937700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>877100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>877900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>890200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>902800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>461100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>460600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>470600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>481900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>523200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>521500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>530900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>546500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>570500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4862,8 +5023,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4939,8 +5101,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5016,8 +5181,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5093,8 +5261,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5170,85 +5341,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E72" s="3">
         <v>6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>63500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>68500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>77200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>116500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>122700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>179000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>353300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>361000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>362800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>361800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>376300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>387000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>385300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>387100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>382800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>374000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>371200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>364300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>352700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5324,8 +5501,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5401,8 +5581,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5478,85 +5661,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E76" s="3">
         <v>61600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>76900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>109200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>158100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>360500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>367800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>369700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>367600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>382800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>394200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>391800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>392700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>387400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>376800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>372300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>361600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>348100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5632,167 +5821,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44752</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44668</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44556</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44388</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44304</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44192</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44108</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44024</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43940</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43744</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43660</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43576</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43380</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43296</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43212</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42925</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42841</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42729</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-39300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-174300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5820,85 +6018,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E83" s="3">
         <v>17600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>28000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5974,8 +6176,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6051,8 +6256,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6128,8 +6336,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6205,8 +6416,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6282,85 +6496,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>23100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>34800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>70000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6388,85 +6608,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-27100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6542,8 +6766,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6619,85 +6846,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5400</v>
       </c>
       <c r="I94" s="3">
         <v>-5400</v>
       </c>
       <c r="J94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2700</v>
       </c>
       <c r="L94" s="3">
         <v>-2700</v>
       </c>
       <c r="M94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6725,8 +6958,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6802,8 +7036,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6879,8 +7116,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6956,8 +7196,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7033,85 +7276,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>15400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>81700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-35100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>18900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7134,134 +7383,140 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>17100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>10500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44752</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44668</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44556</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44388</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44304</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44192</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44108</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44024</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43940</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43744</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43660</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43576</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43380</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43296</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43212</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42925</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42841</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42729</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E8" s="3">
         <v>286900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>294100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>395600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>283400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>275400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>277000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>326300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>201100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>161100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>302900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>294200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>308000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>409900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>294900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>315400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>421500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>343900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>305700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>317300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>420600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>291500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E9" s="3">
         <v>246800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>249300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>327500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>240700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>229400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>268600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>183300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>180100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>156900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>274900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>240700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>243100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>247400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>327200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>242400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>241600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>250500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>331600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>268800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>245200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>247500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>325300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>233200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E10" s="3">
         <v>40100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>47600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>64900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>89900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>75100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>60500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>69800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>95300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>58300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1065,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1146,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,168 +1229,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>119400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>20400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E15" s="3">
         <v>17400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>17600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>19200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>28400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>29200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>22100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>21200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>28000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>22100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1399,168 +1425,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>329500</v>
+      </c>
+      <c r="E17" s="3">
         <v>294900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>307400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>391200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>301100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>287600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>279500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>330600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>242800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>225100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>464300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>301400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>299400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>320800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>406500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>321900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>293100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>319600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>414500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>335800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>301600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>307900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>403200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>306200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-50600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-158200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>17400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-14700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,209 +1622,216 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2700</v>
       </c>
       <c r="I20" s="3">
         <v>-2700</v>
       </c>
       <c r="J20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-133100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>32800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>23300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>28100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>42500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>10200</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1799,11 +1839,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>10700</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1811,11 +1851,11 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>11000</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
@@ -1829,168 +1869,177 @@
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-161600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>14500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-16800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-7300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>2900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2069,168 +2118,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-39300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-174300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-39300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-174300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2309,8 +2367,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2353,8 +2414,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2371,11 +2432,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>2800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2389,8 +2450,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2469,8 +2533,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2549,168 +2616,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2700</v>
       </c>
       <c r="I32" s="3">
         <v>2700</v>
       </c>
       <c r="J32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-39300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-174300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2789,173 +2865,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-39300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-174300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44752</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44668</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44556</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44388</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44304</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44192</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44108</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44024</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43940</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43744</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43660</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43576</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43380</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43296</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43212</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42925</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42841</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42729</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2984,8 +3069,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3014,88 +3100,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E41" s="3">
         <v>50000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>88900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>20200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>22200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3174,93 +3264,99 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>26500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>14200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>24200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25200</v>
+        <v>26400</v>
       </c>
       <c r="E44" s="3">
         <v>25200</v>
@@ -3272,230 +3368,239 @@
         <v>25200</v>
       </c>
       <c r="H44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I44" s="3">
         <v>23800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>27100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>27400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>28100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>27400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>29400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29600</v>
-      </c>
-      <c r="X44" s="3">
-        <v>29500</v>
       </c>
       <c r="Y44" s="3">
         <v>29500</v>
       </c>
       <c r="Z44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="AA44" s="3">
         <v>29700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>29900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>31000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>27000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E46" s="3">
         <v>109100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>89500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>106900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>105500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>81600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>98500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>83900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>83000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>80700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>104800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>85100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>85500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>82800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>92800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3574,168 +3679,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>679900</v>
+      </c>
+      <c r="E48" s="3">
         <v>725400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>745200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>769800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>787200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>808700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>821400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>832300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>852600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>862000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>877300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>899600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>944300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>964100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>976100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1002000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>565100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>595400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>607300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>626900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>638200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>647300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>651200</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>656400</v>
       </c>
       <c r="AA48" s="3">
         <v>656400</v>
       </c>
       <c r="AB48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="AC48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>126400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>127100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>128500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>129400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>130400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>132900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>133700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>135300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>136700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>137300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>137600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>138200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3814,8 +3928,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3894,88 +4011,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>40300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>53100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>49800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>33400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>32400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>31300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>31100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4054,88 +4177,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>832100</v>
+      </c>
+      <c r="E54" s="3">
         <v>860900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>884400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>906500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>929000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>921700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>942100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>951100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>974700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1033300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1030600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1122100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1237600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1245700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1259900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1270400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>843900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>854800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>862400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>874600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>910600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>898200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>903200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>908200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>918500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4164,8 +4293,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4194,114 +4324,118 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E57" s="3">
         <v>33800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>35200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>26600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="E58" s="3">
         <v>3000</v>
       </c>
       <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10800</v>
       </c>
       <c r="I58" s="3">
         <v>10800</v>
       </c>
       <c r="J58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K58" s="3">
         <v>10500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10800</v>
       </c>
       <c r="L58" s="3">
         <v>10800</v>
@@ -4310,13 +4444,13 @@
         <v>10800</v>
       </c>
       <c r="N58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="O58" s="3">
         <v>10400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>900</v>
@@ -4324,8 +4458,8 @@
       <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>900</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4336,8 +4470,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4354,328 +4488,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E59" s="3">
         <v>168800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>171100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>167400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>166200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>171800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>168100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>171600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>173300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>174300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>160800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>162700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>160900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>132100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>114100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>118100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>120500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>125000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>118000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>122000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>115500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>114400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E60" s="3">
         <v>205600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>206600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>202100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>223300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>214000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>204200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>202600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>203100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>205000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>192800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>194600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>197600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>195700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>195600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>171100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>142200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>151800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>154300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>160300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>150800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>156500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>150700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>141000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E61" s="3">
         <v>198000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>198200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>201700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>167300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>158300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>165200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>171900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>219000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>210300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>289800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>215700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>199100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>191800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>194100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>202800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>230500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>231200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>241400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>276600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>287100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>290600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>311500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>347200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E62" s="3">
         <v>405800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>418000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>425800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>461500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>455600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>462900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>469500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>479600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>457900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>457200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>455000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>466800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>481100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>502700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>513100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>87900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>87600</v>
-      </c>
-      <c r="V62" s="3">
-        <v>86300</v>
       </c>
       <c r="W62" s="3">
         <v>86300</v>
       </c>
       <c r="X62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="Y62" s="3">
         <v>83600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>83800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>84300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>82300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4754,8 +4903,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4834,8 +4986,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4914,88 +5069,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>826800</v>
+      </c>
+      <c r="E66" s="3">
         <v>809300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>822800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>829700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>852000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>825600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>832900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>838900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>854000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>880100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>872600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>937700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>877100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>877900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>890200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>902800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>461100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>460600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>470600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>481900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>523200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>521500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>530900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>546500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>570500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5024,8 +5185,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5104,8 +5266,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5184,8 +5349,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5264,8 +5432,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5344,88 +5515,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>63500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>68500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>122700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>179000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>353300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>361000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>362800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>361800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>376300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>387000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>385300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>387100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>382800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>374000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>371200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>364300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>352700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5504,8 +5681,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5584,8 +5764,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5664,88 +5847,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E76" s="3">
         <v>51600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>61600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>109200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>158100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>360500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>367800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>369700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>367600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>382800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>394200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>391800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>392700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>387400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>376800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>372300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>361600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>348100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5824,173 +6013,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44920</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44752</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44668</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44556</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44388</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44304</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44192</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44108</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44024</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43940</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43744</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43660</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43576</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43380</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43296</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43212</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42925</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42841</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42729</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-39300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-174300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6019,88 +6217,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E83" s="3">
         <v>17400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>28000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6179,8 +6381,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6259,8 +6464,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6339,8 +6547,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6419,8 +6630,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6499,88 +6713,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>70000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6609,8 +6829,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6618,79 +6839,82 @@
         <v>-11100</v>
       </c>
       <c r="E91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-27100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6769,8 +6993,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6849,88 +7076,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-5400</v>
       </c>
       <c r="J94" s="3">
         <v>-5400</v>
       </c>
       <c r="K94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2700</v>
       </c>
       <c r="M94" s="3">
         <v>-2700</v>
       </c>
       <c r="N94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O94" s="3">
         <v>-8700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6959,8 +7192,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7039,8 +7273,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7119,8 +7356,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7199,8 +7439,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7279,88 +7522,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>15400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>81700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-35100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>18900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7386,137 +7635,143 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>10500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,404 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45116</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45032</v>
+      </c>
+      <c r="F7" s="2">
         <v>44920</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44752</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44668</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44556</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44388</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44304</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44192</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44108</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44024</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43940</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43744</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43660</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43576</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43380</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43296</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43212</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42925</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42841</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42729</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>298600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>417800</v>
+      </c>
+      <c r="F8" s="3">
         <v>290100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>286900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>294100</v>
       </c>
-      <c r="G8" s="3">
-        <v>395600</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>395100</v>
+      </c>
+      <c r="J8" s="3">
         <v>283400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>275400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>277000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>326300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>201100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>161100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>306100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>302900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>294200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>308000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>409900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>306800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>294900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>315400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>421500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>343900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>305700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>317300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>420600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>291500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>326000</v>
+      </c>
+      <c r="F9" s="3">
         <v>247000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>246800</v>
       </c>
-      <c r="F9" s="3">
-        <v>249300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>327500</v>
-      </c>
       <c r="H9" s="3">
+        <v>255900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>336400</v>
+      </c>
+      <c r="J9" s="3">
         <v>240700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>236400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>229400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>268600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>183300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>180100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>156900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>274900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>240700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>243100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>247400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>327200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>242400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>241600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>250500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>331600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>268800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>245200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>247500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>325300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>233200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>91800</v>
+      </c>
+      <c r="F10" s="3">
         <v>43100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>40100</v>
       </c>
-      <c r="F10" s="3">
-        <v>44800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>68100</v>
-      </c>
       <c r="H10" s="3">
+        <v>38200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>58700</v>
+      </c>
+      <c r="J10" s="3">
         <v>42700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>39000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>17800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>62200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>51100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>60600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>82700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>64400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>53300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>64900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>89900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>75100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>60500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>69800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>95300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>58300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1092,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1149,8 +1177,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1232,174 +1266,192 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F14" s="3">
         <v>30700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I14" s="3">
         <v>5300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>119400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>16800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>21700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>10600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>6300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>5300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>1600</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>20400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F15" s="3">
         <v>17300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>17400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>17600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>23900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>19500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>18900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>19200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>25900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>19500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>19200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>20600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>28300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>20700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>21300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>21400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>28400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>22000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>21800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>22300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>29200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>22100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>21300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>21200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>28000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>22100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1426,174 +1478,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>413600</v>
+      </c>
+      <c r="F17" s="3">
         <v>329500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>294900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>307400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>391200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>301100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>287600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>279500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>330600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>242800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>225100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>211700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>464300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>301400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>299400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>320800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>406500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>321900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>293100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>319600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>414500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>335800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>301600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>307900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>403200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>306200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-39400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-13300</v>
       </c>
-      <c r="G18" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-17700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-41700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-24600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-50600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-158200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-12800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-15100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-4200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>7000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>8100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>4100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>9400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>17400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-14700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,200 +1689,214 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>16100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>10700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>8300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>8400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J21" s="3">
         <v>12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-22900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-31900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-133100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>30500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>14200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>28600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>14800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>21300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>15700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>32800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>38600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>23300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>28100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>42500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>5300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>20600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>14200</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1828,40 +1908,40 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>10200</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>10700</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>10700</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>11000</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
+      <c r="Z22" s="3">
+        <v>11000</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
@@ -1872,174 +1952,192 @@
       <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-17500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-42500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-26900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-52600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-161600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-15000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-17900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>6900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>14500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-16800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-7300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-700</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>2900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-8100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2121,174 +2219,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-44200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-56300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-174300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>6000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>6900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>11600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-44200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-21300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-39300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-56300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-174300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>4400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>6000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>6900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>11600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2370,8 +2486,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2417,11 +2539,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2435,14 +2557,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>2800</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>2800</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2453,8 +2575,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2536,8 +2664,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2619,174 +2753,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-16100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-10700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>3000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>2100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-44200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-21300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-39300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-56300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-174300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-10600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>4400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>8800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>6900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>11600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2868,179 +3020,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-44200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-21300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-39300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-56300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-174300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-10600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>4400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>8800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>6900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>11600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45116</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45032</v>
+      </c>
+      <c r="F38" s="2">
         <v>44920</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44752</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44668</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44556</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44388</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44304</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44192</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44108</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44024</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43940</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43744</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43660</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43576</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43380</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43296</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43212</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42925</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42841</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42729</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3070,8 +3240,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3101,91 +3273,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F41" s="3">
         <v>48800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>50000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>50300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>22300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>27400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>26100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>88900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>30000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>26200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>23000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>18600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>20400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>21900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>23700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>17700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>15000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>20200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>22200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>11700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3267,102 +3447,114 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F43" s="3">
         <v>22000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>37200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>27700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>27100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>72100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>9000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>10300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>22400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>11500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>13000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>12600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>25000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>12800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>14000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>12100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>26500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>12300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>12900</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>14200</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>24200</v>
       </c>
       <c r="AC43" s="3">
         <v>14200</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F44" s="3">
         <v>26400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>25200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>25200</v>
       </c>
       <c r="G44" s="3">
         <v>25200</v>
@@ -3371,236 +3563,254 @@
         <v>25200</v>
       </c>
       <c r="I44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K44" s="3">
         <v>23800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>23900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>23800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>24500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>25000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>24900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>26400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>27100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>27400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>28100</v>
       </c>
       <c r="T44" s="3">
         <v>27400</v>
       </c>
       <c r="U44" s="3">
+        <v>28100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>27400</v>
+      </c>
+      <c r="W44" s="3">
         <v>29200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>29300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>29400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>29600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>29500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>29500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>29700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>29900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F45" s="3">
         <v>22300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>22800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>23200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>17000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>46800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>26600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>22200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>27600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>21500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>17800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>15600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>31000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>28400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>22900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>16600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>27000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F46" s="3">
         <v>119600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>109100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>111600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>108000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>102200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>82100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>89500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>85900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>86900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>135600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>106900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>154800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>105500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>75200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>81600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>85900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>98500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>83900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>83000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>80700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>104800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>85100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>85500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>82800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>92800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3682,174 +3892,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>658700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>663900</v>
+      </c>
+      <c r="F48" s="3">
         <v>679900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>725400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>745200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>769800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>787200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>808700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>821400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>832300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>852600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>862000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>877300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>899600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>944300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>964100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>976100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1002000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>565100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>595400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>607300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>626900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>638200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>647300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>651200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>656400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>656400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F49" s="3">
         <v>17700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>19800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>21300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>22400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>23100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>23700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>24700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>25400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>26500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>27400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>126400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>127100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>128500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>129400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>130400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>132200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>132900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>133700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>135300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>136700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>137300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>137600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>138200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3931,8 +4159,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4014,91 +4248,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F52" s="3">
         <v>14900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>19900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>40300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>61500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>79300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>73700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>53100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>49800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>43300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>39200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>33400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>32400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>29100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>29200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>31300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>31100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4180,91 +4426,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>798400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>803900</v>
+      </c>
+      <c r="F54" s="3">
         <v>832100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>860900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>884400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>906500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>929000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>921700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>942100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>951100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>974700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1033300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1030600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1122100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1237600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1245700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1259900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1270400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>843900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>854800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>862400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>874600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>910600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>898200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>903200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>908200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>918500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4294,8 +4552,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4325,147 +4585,155 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F57" s="3">
         <v>39300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>31600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>32500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>34600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>18900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>19900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>26300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>33000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>37100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>32000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>33800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>39000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>28200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>33700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>33800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>35300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>32800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>34500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>35200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>26600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10500</v>
       </c>
       <c r="L58" s="3">
         <v>10800</v>
       </c>
       <c r="M58" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="N58" s="3">
         <v>10800</v>
       </c>
       <c r="O58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="P58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>10400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>900</v>
       </c>
       <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>900</v>
+      </c>
+      <c r="U58" s="3">
+        <v>900</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -4473,11 +4741,11 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4491,340 +4759,370 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>165100</v>
+      </c>
+      <c r="F59" s="3">
         <v>172800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>168800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>171100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>167400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>179900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>166200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>171800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>168100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>171600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>173300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>174300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>156100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>160800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>159600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>162700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>160900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>132100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>114100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>118100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>120500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>125000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>118000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>122000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>115500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>114400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200200</v>
+      </c>
+      <c r="F60" s="3">
         <v>216600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>205600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>206600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>202100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>223300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>211600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>204200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>202600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>203100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>205000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>192800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>194600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>197600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>195700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>195600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>171100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>142200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>151800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>154300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>160300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>150800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>156500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>150700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>141000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>203200</v>
+      </c>
+      <c r="F61" s="3">
         <v>212100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>198000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>198200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>201700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>167300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>158300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>165200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>171900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>219000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>210300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>289800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>215700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>199100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>191800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>194100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>202800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>230500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>231200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>241400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>276600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>287100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>290600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>311500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>347200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>402900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>395800</v>
+      </c>
+      <c r="F62" s="3">
         <v>398000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>405800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>418000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>425800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>461500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>455600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>462900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>469500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>479600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>457900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>457200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>455000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>466800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>481100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>502700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>513100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>87200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>87900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>87600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>86300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>86300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>83600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>83800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>84300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>82300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4906,8 +5204,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4989,8 +5293,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5072,91 +5382,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>795400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>799200</v>
+      </c>
+      <c r="F66" s="3">
         <v>826800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>809300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>822800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>829700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>852000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>825600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>832900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>838900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>854000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>880100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>872600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>937700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>877100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>877900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>890200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>902800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>461100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>460600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>470600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>481900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>523200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>521500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>530900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>546500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>570500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5186,8 +5508,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5269,8 +5593,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5352,8 +5682,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5435,8 +5771,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5518,91 +5860,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>24100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>27200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>48500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>63500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>68500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>77200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>116500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>122700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>179000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>353300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>361000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>362800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>361800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>376300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>387000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>385300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>387100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>382800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>374000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>371200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>364300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>352700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5684,8 +6038,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5767,8 +6127,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5850,91 +6216,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>51600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>61600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>76900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>77000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>96200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>109200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>112300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>120700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>153200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>158100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>184400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>360500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>367800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>369700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>367600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>382800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>394200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>391800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>392700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>387400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>376800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>372300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>361600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>348100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6016,179 +6394,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45116</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45032</v>
+      </c>
+      <c r="F80" s="2">
         <v>44920</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44752</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44668</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44556</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44388</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44304</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44192</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44108</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44024</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43940</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43744</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43660</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43576</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43380</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43296</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43212</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42925</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42841</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42729</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-44200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-21300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-39300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-56300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-174300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-10600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>4400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>8800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>6900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>11600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6218,91 +6614,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>17400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>17600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>23900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>18900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>19200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>20700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>28400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>22000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>22300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>29200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>22100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>21300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>21200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>28000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>22100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6384,8 +6788,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6467,8 +6877,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6550,8 +6966,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6633,8 +7055,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6716,91 +7144,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>13300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>18300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>42600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-13300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>16300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>16500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>25300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>37500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>11800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>20000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>57000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>35000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>16800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>34800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>70000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>4300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6830,91 +7270,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-22300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-10200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-12500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-15900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-22500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-27100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6996,8 +7444,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7079,91 +7533,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-10900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-10100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-10300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-12400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-11400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-15800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-19200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-24400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7193,8 +7659,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7276,8 +7744,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7359,8 +7833,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7442,8 +7922,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7525,91 +8011,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>14600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>17600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-9500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-45700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-55400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>81700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>16800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>6100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-10800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-28600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-34900</v>
       </c>
       <c r="X100" s="3">
         <v>-9800</v>
       </c>
       <c r="Y100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-35100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>18900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7638,140 +8136,152 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>17100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-62800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>58900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>9800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4400</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-1500</v>
       </c>
       <c r="V102" s="3">
         <v>-1800</v>
       </c>
       <c r="W102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y102" s="3">
         <v>6000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>10500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-10400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRGB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>RRGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,404 +665,417 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45116</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45032</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44920</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44752</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44668</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44556</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44388</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44304</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44192</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44108</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44024</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43940</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43744</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43660</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43576</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43380</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43296</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43212</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42925</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42841</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42729</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E8" s="3">
         <v>298600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>417800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>290100</v>
       </c>
-      <c r="G8" s="3">
-        <v>286900</v>
-      </c>
       <c r="H8" s="3">
+        <v>286800</v>
+      </c>
+      <c r="I8" s="3">
         <v>294100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>395100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>283400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>275400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>277000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>326300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>201100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>161100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>302900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>294200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>308000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>409900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>306800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>294900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>315400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>421500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>343900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>305700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>317300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>420600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>291500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>297300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E9" s="3">
         <v>240100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>326000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>247000</v>
       </c>
-      <c r="G9" s="3">
-        <v>246800</v>
-      </c>
       <c r="H9" s="3">
+        <v>253900</v>
+      </c>
+      <c r="I9" s="3">
         <v>255900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>336400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>240700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>229400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>183300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>180100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>156900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>274900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>240700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>243100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>247400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>327200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>242400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>241600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>250500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>331600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>268800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>245200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>247500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>325300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>233200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>239300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E10" s="3">
         <v>58500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43100</v>
       </c>
-      <c r="G10" s="3">
-        <v>40100</v>
-      </c>
       <c r="H10" s="3">
+        <v>32900</v>
+      </c>
+      <c r="I10" s="3">
         <v>38200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>82700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>64400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>64900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>89900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>75100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>60500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>69800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>95300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>58300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +1107,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1183,8 +1197,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1272,186 +1289,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30700</v>
       </c>
-      <c r="G14" s="3">
-        <v>4000</v>
-      </c>
       <c r="H14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I14" s="3">
         <v>8300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>119400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>21700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5300</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1600</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>20400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E15" s="3">
         <v>15800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>17300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>17400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>17600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>28300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>20700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>28400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>21800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>22300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>29200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>22100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>21300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>21200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>28000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>22100</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1480,186 +1506,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>279500</v>
+      </c>
+      <c r="E17" s="3">
         <v>288400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>413600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>329500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>294900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>307400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>391200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>301100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>287600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>279500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>330600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>242800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>225100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>211700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>464300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>301400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>299400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>320800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>406500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>321900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>293100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>319600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>414500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>335800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>301600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>307900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>403200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>306200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>301500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-13300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-41700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-158200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>4100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>17400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-14700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,186 +1724,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2700</v>
       </c>
       <c r="L20" s="3">
         <v>-2700</v>
       </c>
       <c r="M20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E21" s="3">
         <v>19900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
-        <v>4900</v>
-      </c>
       <c r="H21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-133100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>23300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>28100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>42500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1878,49 +1918,49 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>10200</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1928,11 +1968,11 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>10700</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
@@ -1940,11 +1980,11 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>11000</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>8</v>
@@ -1958,186 +1998,195 @@
       <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-17500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-52600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-161600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>14500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-16800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-16000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-7300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-700</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>2900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-8100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2225,186 +2274,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-39300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-174300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>6900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>11600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-39300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-174300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>11600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2492,8 +2550,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2545,8 +2606,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2563,11 +2624,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>2800</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2581,8 +2642,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2670,8 +2734,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2759,186 +2826,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2700</v>
       </c>
       <c r="L32" s="3">
         <v>2700</v>
       </c>
       <c r="M32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-39300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-174300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>11600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3026,191 +3102,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-39300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-174300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>11600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45116</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45032</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44920</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44752</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44668</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44556</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44388</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44304</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44192</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44108</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44024</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43940</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43744</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43660</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43576</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43380</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43296</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43212</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42925</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42841</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42729</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3242,8 +3327,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3275,97 +3361,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E41" s="3">
         <v>44000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>88900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>21900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>23700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>17700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>22200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>11700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3453,111 +3543,117 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E43" s="3">
         <v>13200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>26500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>12300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>12900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>14200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>24200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>14200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E44" s="3">
         <v>26900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>25400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>26400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>25200</v>
       </c>
       <c r="H44" s="3">
         <v>25200</v>
@@ -3569,248 +3665,257 @@
         <v>25200</v>
       </c>
       <c r="K44" s="3">
+        <v>25200</v>
+      </c>
+      <c r="L44" s="3">
         <v>23800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>25000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>27100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>27400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>28100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>27400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>29300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>29400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>29600</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>29500</v>
       </c>
       <c r="AB44" s="3">
         <v>29500</v>
       </c>
       <c r="AC44" s="3">
+        <v>29500</v>
+      </c>
+      <c r="AD44" s="3">
         <v>29700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>29900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E45" s="3">
         <v>25600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>17800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>31000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>28400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>22900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>16600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>27000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>25700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E46" s="3">
         <v>109700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>110200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>109100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>108000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>82100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>89500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>135600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>105500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>75200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>81600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>98500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>83000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>80700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>104800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>85100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>85500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>82800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>92800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>83500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3898,186 +4003,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>636300</v>
+      </c>
+      <c r="E48" s="3">
         <v>658700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>663900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>679900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>725400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>745200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>769800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>787200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>808700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>821400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>832300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>852600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>862000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>877300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>899600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>944300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>964100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>976100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1002000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>565100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>595400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>607300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>626900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>638200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>647300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>651200</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>656400</v>
       </c>
       <c r="AD48" s="3">
         <v>656400</v>
       </c>
       <c r="AE48" s="3">
+        <v>656400</v>
+      </c>
+      <c r="AF48" s="3">
         <v>677000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E49" s="3">
         <v>17900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>126400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>127100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>128500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>129400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>130400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>132200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>132900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>133700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>135300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>136700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>137300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>137600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>138200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4165,8 +4279,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4254,97 +4371,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E52" s="3">
         <v>12000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>53100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>49800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>43300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>39200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>32400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>29100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>29200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>31300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>31100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4432,97 +4555,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>777300</v>
+      </c>
+      <c r="E54" s="3">
         <v>798400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>803900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>832100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>860900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>884400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>906500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>929000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>921700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>942100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>951100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>974700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1033300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1030600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1122100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1237600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1245700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1259900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1270400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>843900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>854800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>862400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>874600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>910600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>898200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>903200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>908200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>918500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4554,8 +4683,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4587,132 +4717,136 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="3">
         <v>25900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>35300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>32800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>34500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>35200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>26600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G58" s="3">
         <v>4500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3000</v>
       </c>
       <c r="H58" s="3">
         <v>3000</v>
       </c>
       <c r="I58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10800</v>
       </c>
       <c r="L58" s="3">
         <v>10800</v>
       </c>
       <c r="M58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="N58" s="3">
         <v>10500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>10800</v>
       </c>
       <c r="O58" s="3">
         <v>10800</v>
@@ -4721,13 +4855,13 @@
         <v>10800</v>
       </c>
       <c r="Q58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="R58" s="3">
         <v>10400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>900</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
@@ -4735,8 +4869,8 @@
       <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>900</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4747,8 +4881,8 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4765,364 +4899,379 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E59" s="3">
         <v>175600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>165100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>172800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>168800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>171100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>167400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>166200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>171800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>168100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>171600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>174300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>160800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>162700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>160900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>132100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>114100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>118100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>120500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>125000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>118000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>122000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>115500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>114400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>112700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E60" s="3">
         <v>204300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>216600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>205600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>206600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>202100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>223300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>204200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>202600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>203100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>192800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>194600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>197600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>195700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>195600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>171100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>142200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>151800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>154300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>160300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>150800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>156500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>150700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>141000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>153500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E61" s="3">
         <v>188100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>203200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>212100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>198000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>198200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>201700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>167300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>158300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>156000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>165200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>171900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>219000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>210300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>289800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>215700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>199100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>191800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>194100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>202800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>230500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>231200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>241400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>276600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>287100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>290600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>311500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>347200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>315800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>399500</v>
+      </c>
+      <c r="E62" s="3">
         <v>402900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>395800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>398000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>405800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>418000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>425800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>461500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>455600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>462900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>469500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>479600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>457900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>457200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>455000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>466800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>481100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>502700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>513100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>87200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>87900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>87600</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>86300</v>
       </c>
       <c r="Z62" s="3">
         <v>86300</v>
       </c>
       <c r="AA62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="AB62" s="3">
         <v>83600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>83800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>84300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>82300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>84000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5210,8 +5359,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5299,8 +5451,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5388,97 +5543,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E66" s="3">
         <v>795400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>799200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>826800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>809300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>822800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>829700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>852000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>825600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>832900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>838900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>854000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>880100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>872600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>937700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>877100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>877900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>890200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>902800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>461100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>460600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>470600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>481900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>523200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>521500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>530900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>546500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>570500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>553400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5510,8 +5671,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5599,8 +5761,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5688,8 +5853,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5777,8 +5945,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5866,97 +6037,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>24100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>27200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>63500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>68500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>77200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>122700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>179000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>353300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>361000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>362800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>361800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>376300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>387000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>385300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>387100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>382800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>374000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>371200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>364300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>352700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>361500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6044,8 +6221,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6133,8 +6313,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6222,97 +6405,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>76900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>109200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>112300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>120700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>153200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>158100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>184400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>360500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>367800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>369700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>367600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>382800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>394200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>391800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>392700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>387400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>376800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>372300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>361600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>348100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6400,191 +6589,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45116</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45032</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44920</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44752</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44668</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44556</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44388</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44304</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44192</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44108</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44024</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43940</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43744</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43660</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43576</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43380</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43296</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43212</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42925</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42841</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42729</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-39300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-174300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>11600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-8800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6616,97 +6814,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>17600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>22300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>28000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>22100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6794,8 +6996,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6883,8 +7088,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6972,8 +7180,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7061,8 +7272,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7150,97 +7364,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>20000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>57000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>35000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>16800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>34800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>70000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7272,97 +7492,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-11100</v>
       </c>
       <c r="G91" s="3">
         <v>-11100</v>
       </c>
       <c r="H91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-22500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-27100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-40500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7450,8 +7674,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7539,97 +7766,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-5400</v>
       </c>
       <c r="M94" s="3">
         <v>-5400</v>
       </c>
       <c r="N94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-7300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2700</v>
       </c>
       <c r="P94" s="3">
         <v>-2700</v>
       </c>
       <c r="Q94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R94" s="3">
         <v>-8700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-24400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-26900</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7661,8 +7894,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7750,8 +7984,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7839,8 +8076,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7928,8 +8168,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8017,97 +8260,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>15400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>81700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-19500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-35100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>18900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8142,146 +8391,152 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>10500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-10400</v>
       </c>
     </row>
